--- a/Test Data Driven/AI-Generated/TestCase-054.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-054.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,99 +446,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="59" customWidth="1" min="1" max="1"/>
-    <col width="59" customWidth="1" min="2" max="2"/>
-    <col width="59" customWidth="1" min="3" max="3"/>
-    <col width="59" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>data_path_0</t>
+          <t>input_useremail</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>data_path_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>data_path_2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>data_path_3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>index_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>index_1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>index_2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>index_3</t>
+          <t>input_useremail_1</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Data Files/AI-Generated/Common/actionSequence_3-test-data</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Data Files/AI-Generated/Common/actionSequence_3-test-data</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Data Files/AI-Generated/Common/actionSequence_3-test-data</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Data Files/AI-Generated/Common/actionSequence_5-test-data</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
